--- a/Office365/DistributionLists/00_CreatingListsHelper-PS.xlsx
+++ b/Office365/DistributionLists/00_CreatingListsHelper-PS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\Personale\git\ImapSyncMigrationHelper\Windows\DistributionLists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\Personale\git\ImapSyncMigrationHelper\Office365\DistributionLists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A91518-E56F-48A5-89E2-790F9B385A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4932A5-1206-46FF-9882-391FAF3EC867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{76BE234D-9BBB-44B8-8223-B7E1AA5F1F12}"/>
   </bookViews>
@@ -436,15 +436,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C34CC9-C0C2-4055-BA3A-5013851206E5}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="82.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -469,8 +468,8 @@
         <v>6</v>
       </c>
       <c r="C2" t="str">
-        <f>CONCATENATE("echo Account' &gt; ",A2,".csv")</f>
-        <v>echo Account' &gt; list1@domain.com.csv</v>
+        <f>CONCATENATE("echo 'Account' &gt; ",A2,".csv")</f>
+        <v>echo 'Account' &gt; list1@domain.com.csv</v>
       </c>
       <c r="D2" t="str">
         <f>CONCATENATE("echo '",B2,"' &gt;&gt; ",A2,".csv")</f>
@@ -485,8 +484,8 @@
         <v>7</v>
       </c>
       <c r="C3" t="str">
-        <f>CONCATENATE("echo Account' &gt; ",A3,".csv")</f>
-        <v>echo Account' &gt; list1@domain.com.csv</v>
+        <f>CONCATENATE("echo 'Account' &gt; ",A3,".csv")</f>
+        <v>echo 'Account' &gt; list1@domain.com.csv</v>
       </c>
       <c r="D3" t="str">
         <f>CONCATENATE("echo '",B3,"' &gt;&gt; ",A3,".csv")</f>
@@ -501,8 +500,8 @@
         <v>8</v>
       </c>
       <c r="C4" t="str">
-        <f>CONCATENATE("echo Account' &gt; ",A4,".csv")</f>
-        <v>echo Account' &gt; list2@domain.com.csv</v>
+        <f>CONCATENATE("echo 'Account' &gt; ",A4,".csv")</f>
+        <v>echo 'Account' &gt; list2@domain.com.csv</v>
       </c>
       <c r="D4" t="str">
         <f>CONCATENATE("echo '",B4,"' &gt;&gt; ",A4,".csv")</f>
